--- a/PlacesList.xlsx
+++ b/PlacesList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ismae\Desktop\RPA Development\Rest_API_Calls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D35BF24-A37F-415E-8277-BA917AFBDFF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37E1E07-78D0-4891-B211-895B3D7BBCC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="1470" windowWidth="16065" windowHeight="9450" xr2:uid="{B4308AFD-FC57-410E-87B1-D3E1B99D4E5B}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C2" sqref="C2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
